--- a/blugentable.xlsx
+++ b/blugentable.xlsx
@@ -5,11 +5,11 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rodiv/Projects/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rodiv/Projects/SC/Fox/Fox/FoxAlgorithm/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="27320" windowHeight="14900" tabRatio="500"/>
+    <workbookView minimized="1" xWindow="0" yWindow="460" windowWidth="27320" windowHeight="14900" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="37">
   <si>
     <t>69.8710839748</t>
   </si>
@@ -132,16 +132,35 @@
   </si>
   <si>
     <t>mSize:</t>
+  </si>
+  <si>
+    <t>Time:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -164,14 +183,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="2" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -446,731 +469,839 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="G36" sqref="A1:G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
       <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F1">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1">
         <v>1024</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
       <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2">
         <v>1024</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3">
         <v>1024</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" t="s">
-        <v>1</v>
-      </c>
       <c r="C4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4">
         <v>128</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
       <c r="C5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5">
         <v>128</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" t="s">
-        <v>1</v>
-      </c>
       <c r="C6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6">
         <v>128</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" t="s">
         <v>8</v>
       </c>
-      <c r="B7" t="s">
-        <v>1</v>
-      </c>
       <c r="C7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7">
         <v>256</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" t="s">
         <v>9</v>
       </c>
-      <c r="B8" t="s">
-        <v>1</v>
-      </c>
       <c r="C8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8" t="s">
-        <v>35</v>
-      </c>
-      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8">
         <v>256</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" t="s">
         <v>10</v>
       </c>
-      <c r="B9" t="s">
-        <v>1</v>
-      </c>
       <c r="C9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9" t="s">
-        <v>35</v>
-      </c>
-      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9">
         <v>256</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" t="s">
         <v>11</v>
       </c>
-      <c r="B10" t="s">
-        <v>1</v>
-      </c>
       <c r="C10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10" t="s">
-        <v>35</v>
-      </c>
-      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10">
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" t="s">
         <v>12</v>
       </c>
-      <c r="B11" t="s">
-        <v>1</v>
-      </c>
       <c r="C11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11" t="s">
-        <v>35</v>
-      </c>
-      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11" t="s">
+        <v>35</v>
+      </c>
+      <c r="G11">
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" t="s">
         <v>13</v>
       </c>
-      <c r="B12" t="s">
-        <v>1</v>
-      </c>
       <c r="C12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12" t="s">
-        <v>35</v>
-      </c>
-      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G12">
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" t="s">
         <v>14</v>
       </c>
-      <c r="B13" t="s">
-        <v>1</v>
-      </c>
       <c r="C13" t="s">
-        <v>2</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13" t="s">
-        <v>35</v>
-      </c>
-      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13" t="s">
+        <v>35</v>
+      </c>
+      <c r="G13">
         <v>512</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" t="s">
         <v>15</v>
       </c>
-      <c r="B14" t="s">
-        <v>1</v>
-      </c>
       <c r="C14" t="s">
-        <v>2</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14" t="s">
-        <v>35</v>
-      </c>
-      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14" t="s">
+        <v>35</v>
+      </c>
+      <c r="G14">
         <v>512</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" t="s">
         <v>16</v>
       </c>
-      <c r="B15" t="s">
-        <v>1</v>
-      </c>
       <c r="C15" t="s">
-        <v>2</v>
-      </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-      <c r="E15" t="s">
-        <v>35</v>
-      </c>
-      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>2</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15" t="s">
+        <v>35</v>
+      </c>
+      <c r="G15">
         <v>512</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" t="s">
         <v>17</v>
       </c>
-      <c r="B16" t="s">
-        <v>1</v>
-      </c>
       <c r="C16" t="s">
-        <v>2</v>
-      </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="E16" t="s">
-        <v>35</v>
-      </c>
-      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16" t="s">
+        <v>35</v>
+      </c>
+      <c r="G16">
         <v>64</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" t="s">
         <v>18</v>
       </c>
-      <c r="B17" t="s">
-        <v>1</v>
-      </c>
       <c r="C17" t="s">
-        <v>2</v>
-      </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-      <c r="E17" t="s">
-        <v>35</v>
-      </c>
-      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17" t="s">
+        <v>35</v>
+      </c>
+      <c r="G17">
         <v>64</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" t="s">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
-        <v>1</v>
-      </c>
       <c r="C18" t="s">
-        <v>2</v>
-      </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-      <c r="E18" t="s">
-        <v>35</v>
-      </c>
-      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
+        <v>2</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18" t="s">
+        <v>35</v>
+      </c>
+      <c r="G18">
         <v>64</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" t="s">
         <v>19</v>
       </c>
-      <c r="B19" t="s">
-        <v>1</v>
-      </c>
       <c r="C19" t="s">
-        <v>2</v>
-      </c>
-      <c r="D19">
-        <v>4</v>
-      </c>
-      <c r="E19" t="s">
-        <v>35</v>
-      </c>
-      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="D19" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19">
+        <v>4</v>
+      </c>
+      <c r="F19" t="s">
+        <v>35</v>
+      </c>
+      <c r="G19">
         <v>1024</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" t="s">
         <v>20</v>
       </c>
-      <c r="B20" t="s">
-        <v>1</v>
-      </c>
       <c r="C20" t="s">
-        <v>2</v>
-      </c>
-      <c r="D20">
-        <v>4</v>
-      </c>
-      <c r="E20" t="s">
-        <v>35</v>
-      </c>
-      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="D20" t="s">
+        <v>2</v>
+      </c>
+      <c r="E20">
+        <v>4</v>
+      </c>
+      <c r="F20" t="s">
+        <v>35</v>
+      </c>
+      <c r="G20">
         <v>1024</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" t="s">
         <v>21</v>
       </c>
-      <c r="B21" t="s">
-        <v>1</v>
-      </c>
       <c r="C21" t="s">
-        <v>2</v>
-      </c>
-      <c r="D21">
-        <v>4</v>
-      </c>
-      <c r="E21" t="s">
-        <v>35</v>
-      </c>
-      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="D21" t="s">
+        <v>2</v>
+      </c>
+      <c r="E21">
+        <v>4</v>
+      </c>
+      <c r="F21" t="s">
+        <v>35</v>
+      </c>
+      <c r="G21">
         <v>1024</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" t="s">
         <v>22</v>
       </c>
-      <c r="B22" t="s">
-        <v>1</v>
-      </c>
       <c r="C22" t="s">
-        <v>2</v>
-      </c>
-      <c r="D22">
-        <v>4</v>
-      </c>
-      <c r="E22" t="s">
-        <v>35</v>
-      </c>
-      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="D22" t="s">
+        <v>2</v>
+      </c>
+      <c r="E22">
+        <v>4</v>
+      </c>
+      <c r="F22" t="s">
+        <v>35</v>
+      </c>
+      <c r="G22">
         <v>128</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" t="s">
         <v>23</v>
       </c>
-      <c r="B23" t="s">
-        <v>1</v>
-      </c>
       <c r="C23" t="s">
-        <v>2</v>
-      </c>
-      <c r="D23">
-        <v>4</v>
-      </c>
-      <c r="E23" t="s">
-        <v>35</v>
-      </c>
-      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="D23" t="s">
+        <v>2</v>
+      </c>
+      <c r="E23">
+        <v>4</v>
+      </c>
+      <c r="F23" t="s">
+        <v>35</v>
+      </c>
+      <c r="G23">
         <v>128</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" t="s">
         <v>24</v>
       </c>
-      <c r="B24" t="s">
-        <v>1</v>
-      </c>
       <c r="C24" t="s">
-        <v>2</v>
-      </c>
-      <c r="D24">
-        <v>4</v>
-      </c>
-      <c r="E24" t="s">
-        <v>35</v>
-      </c>
-      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="D24" t="s">
+        <v>2</v>
+      </c>
+      <c r="E24">
+        <v>4</v>
+      </c>
+      <c r="F24" t="s">
+        <v>35</v>
+      </c>
+      <c r="G24">
         <v>128</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" t="s">
         <v>25</v>
       </c>
-      <c r="B25" t="s">
-        <v>1</v>
-      </c>
       <c r="C25" t="s">
-        <v>2</v>
-      </c>
-      <c r="D25">
-        <v>4</v>
-      </c>
-      <c r="E25" t="s">
-        <v>35</v>
-      </c>
-      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="D25" t="s">
+        <v>2</v>
+      </c>
+      <c r="E25">
+        <v>4</v>
+      </c>
+      <c r="F25" t="s">
+        <v>35</v>
+      </c>
+      <c r="G25">
         <v>256</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" t="s">
         <v>26</v>
       </c>
-      <c r="B26" t="s">
-        <v>1</v>
-      </c>
       <c r="C26" t="s">
-        <v>2</v>
-      </c>
-      <c r="D26">
-        <v>4</v>
-      </c>
-      <c r="E26" t="s">
-        <v>35</v>
-      </c>
-      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="D26" t="s">
+        <v>2</v>
+      </c>
+      <c r="E26">
+        <v>4</v>
+      </c>
+      <c r="F26" t="s">
+        <v>35</v>
+      </c>
+      <c r="G26">
         <v>256</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" t="s">
         <v>27</v>
       </c>
-      <c r="B27" t="s">
-        <v>1</v>
-      </c>
       <c r="C27" t="s">
-        <v>2</v>
-      </c>
-      <c r="D27">
-        <v>4</v>
-      </c>
-      <c r="E27" t="s">
-        <v>35</v>
-      </c>
-      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="D27" t="s">
+        <v>2</v>
+      </c>
+      <c r="E27">
+        <v>4</v>
+      </c>
+      <c r="F27" t="s">
+        <v>35</v>
+      </c>
+      <c r="G27">
         <v>256</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" t="s">
         <v>28</v>
       </c>
-      <c r="B28" t="s">
-        <v>1</v>
-      </c>
       <c r="C28" t="s">
-        <v>2</v>
-      </c>
-      <c r="D28">
-        <v>4</v>
-      </c>
-      <c r="E28" t="s">
-        <v>35</v>
-      </c>
-      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="D28" t="s">
+        <v>2</v>
+      </c>
+      <c r="E28">
+        <v>4</v>
+      </c>
+      <c r="F28" t="s">
+        <v>35</v>
+      </c>
+      <c r="G28">
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" t="s">
         <v>28</v>
       </c>
-      <c r="B29" t="s">
-        <v>1</v>
-      </c>
       <c r="C29" t="s">
-        <v>2</v>
-      </c>
-      <c r="D29">
-        <v>4</v>
-      </c>
-      <c r="E29" t="s">
-        <v>35</v>
-      </c>
-      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="D29" t="s">
+        <v>2</v>
+      </c>
+      <c r="E29">
+        <v>4</v>
+      </c>
+      <c r="F29" t="s">
+        <v>35</v>
+      </c>
+      <c r="G29">
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30" t="s">
         <v>28</v>
       </c>
-      <c r="B30" t="s">
-        <v>1</v>
-      </c>
       <c r="C30" t="s">
-        <v>2</v>
-      </c>
-      <c r="D30">
-        <v>4</v>
-      </c>
-      <c r="E30" t="s">
-        <v>35</v>
-      </c>
-      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="D30" t="s">
+        <v>2</v>
+      </c>
+      <c r="E30">
+        <v>4</v>
+      </c>
+      <c r="F30" t="s">
+        <v>35</v>
+      </c>
+      <c r="G30">
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31" t="s">
         <v>29</v>
       </c>
-      <c r="B31" t="s">
-        <v>1</v>
-      </c>
       <c r="C31" t="s">
-        <v>2</v>
-      </c>
-      <c r="D31">
-        <v>4</v>
-      </c>
-      <c r="E31" t="s">
-        <v>35</v>
-      </c>
-      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="D31" t="s">
+        <v>2</v>
+      </c>
+      <c r="E31">
+        <v>4</v>
+      </c>
+      <c r="F31" t="s">
+        <v>35</v>
+      </c>
+      <c r="G31">
         <v>512</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" t="s">
         <v>30</v>
       </c>
-      <c r="B32" t="s">
-        <v>1</v>
-      </c>
       <c r="C32" t="s">
-        <v>2</v>
-      </c>
-      <c r="D32">
-        <v>4</v>
-      </c>
-      <c r="E32" t="s">
-        <v>35</v>
-      </c>
-      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="D32" t="s">
+        <v>2</v>
+      </c>
+      <c r="E32">
+        <v>4</v>
+      </c>
+      <c r="F32" t="s">
+        <v>35</v>
+      </c>
+      <c r="G32">
         <v>512</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33" t="s">
         <v>31</v>
       </c>
-      <c r="B33" t="s">
-        <v>1</v>
-      </c>
       <c r="C33" t="s">
-        <v>2</v>
-      </c>
-      <c r="D33">
-        <v>4</v>
-      </c>
-      <c r="E33" t="s">
-        <v>35</v>
-      </c>
-      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="D33" t="s">
+        <v>2</v>
+      </c>
+      <c r="E33">
+        <v>4</v>
+      </c>
+      <c r="F33" t="s">
+        <v>35</v>
+      </c>
+      <c r="G33">
         <v>512</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34" t="s">
         <v>32</v>
       </c>
-      <c r="B34" t="s">
-        <v>1</v>
-      </c>
       <c r="C34" t="s">
-        <v>2</v>
-      </c>
-      <c r="D34">
-        <v>4</v>
-      </c>
-      <c r="E34" t="s">
-        <v>35</v>
-      </c>
-      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="D34" t="s">
+        <v>2</v>
+      </c>
+      <c r="E34">
+        <v>4</v>
+      </c>
+      <c r="F34" t="s">
+        <v>35</v>
+      </c>
+      <c r="G34">
         <v>64</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35" t="s">
         <v>33</v>
       </c>
-      <c r="B35" t="s">
-        <v>1</v>
-      </c>
       <c r="C35" t="s">
-        <v>2</v>
-      </c>
-      <c r="D35">
-        <v>4</v>
-      </c>
-      <c r="E35" t="s">
-        <v>35</v>
-      </c>
-      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="D35" t="s">
+        <v>2</v>
+      </c>
+      <c r="E35">
+        <v>4</v>
+      </c>
+      <c r="F35" t="s">
+        <v>35</v>
+      </c>
+      <c r="G35">
         <v>64</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36" t="s">
         <v>34</v>
       </c>
-      <c r="B36" t="s">
-        <v>1</v>
-      </c>
       <c r="C36" t="s">
-        <v>2</v>
-      </c>
-      <c r="D36">
-        <v>4</v>
-      </c>
-      <c r="E36" t="s">
-        <v>35</v>
-      </c>
-      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="D36" t="s">
+        <v>2</v>
+      </c>
+      <c r="E36">
+        <v>4</v>
+      </c>
+      <c r="F36" t="s">
+        <v>35</v>
+      </c>
+      <c r="G36">
         <v>64</v>
       </c>
     </row>
